--- a/placeholder_name/excel_test_file.xlsx
+++ b/placeholder_name/excel_test_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>X1</t>
   </si>
@@ -28,12 +28,6 @@
   </si>
   <si>
     <t>Y2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azymut </t>
   </si>
 </sst>
 </file>
@@ -366,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,14 +381,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>3</v>
       </c>
@@ -408,7 +396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>4</v>
       </c>
@@ -422,7 +410,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>5</v>
       </c>
@@ -436,7 +424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>6</v>
       </c>
@@ -450,7 +438,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>7</v>
       </c>
@@ -464,7 +452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>8</v>
       </c>
@@ -478,7 +466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9</v>
       </c>
@@ -492,7 +480,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>10</v>
       </c>
@@ -506,99 +494,99 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>69</v>
@@ -606,13 +594,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>70</v>
@@ -620,240 +608,226 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D26">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D27">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D28">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C29">
-        <v>-3</v>
+        <v>69</v>
       </c>
       <c r="D29">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C30">
-        <v>-6</v>
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C31">
-        <v>-9</v>
+        <v>63</v>
       </c>
       <c r="D31">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C32">
-        <v>-12</v>
+        <v>60</v>
       </c>
       <c r="D32">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C33">
-        <v>-15</v>
+        <v>57</v>
       </c>
       <c r="D33">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>41</v>
-      </c>
-      <c r="C34">
-        <v>-18</v>
-      </c>
-      <c r="D34">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
